--- a/docs/odh/shr-core-NonLaboratoryObservation.xlsx
+++ b/docs/odh/shr-core-NonLaboratoryObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="436">
   <si>
     <t>Path</t>
   </si>
@@ -225,26 +225,111 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -258,216 +343,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -623,6 +502,9 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
@@ -753,6 +635,10 @@
   </si>
   <si>
     <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
   </si>
   <si>
     <t>Date/Time this was made available</t>
@@ -904,6 +790,10 @@
     <t>Observation.comment</t>
   </si>
   <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Comments about result</t>
   </si>
   <si>
@@ -955,7 +845,35 @@
     <t>Observation.bodySite.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.bodySite.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>laterality</t>
@@ -989,6 +907,10 @@
   </si>
   <si>
     <t>Observation.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -1607,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP76"/>
+  <dimension ref="A1:AP69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1639,7 +1561,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2148,10 +2070,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>69</v>
@@ -2162,7 +2084,9 @@
       <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2211,7 +2135,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2235,7 +2159,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2250,14 +2174,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2269,16 +2193,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2304,37 +2228,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2352,7 +2276,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2363,11 +2287,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2383,19 +2307,19 @@
         <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2444,13 +2368,17 @@
       <c r="AD7" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2465,7 +2393,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2476,18 +2404,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2496,19 +2424,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2557,11 +2485,15 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2578,7 +2510,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2589,11 +2521,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2609,19 +2541,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2670,11 +2602,15 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2691,7 +2627,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2702,11 +2638,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2719,22 +2655,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2760,13 +2696,13 @@
         <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>45</v>
@@ -2783,11 +2719,15 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2804,7 +2744,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2815,7 +2755,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2838,18 +2778,18 @@
         <v>57</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2873,13 +2813,13 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>45</v>
@@ -2908,19 +2848,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2928,41 +2868,41 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3009,15 +2949,11 @@
       <c r="AD12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3025,16 +2961,16 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -3045,7 +2981,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3053,7 +2989,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>56</v>
@@ -3062,24 +2998,26 @@
         <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3103,13 +3041,13 @@
         <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>45</v>
@@ -3126,15 +3064,11 @@
       <c r="AD13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE13" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3142,19 +3076,19 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3162,11 +3096,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3185,18 +3119,20 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3220,13 +3156,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3244,16 +3180,16 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>45</v>
@@ -3268,10 +3204,10 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3279,18 +3215,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -3299,21 +3235,21 @@
         <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3337,13 +3273,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3360,15 +3296,11 @@
       <c r="AD15" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE15" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3376,38 +3308,38 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3416,21 +3348,23 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3478,13 +3412,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3493,19 +3427,19 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3513,41 +3447,43 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3594,15 +3530,11 @@
       <c r="AD17" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3610,19 +3542,19 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3630,18 +3562,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3653,17 +3585,19 @@
         <v>57</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3723,19 +3657,19 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3743,18 +3677,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3766,18 +3700,18 @@
         <v>57</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3836,19 +3770,19 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3856,7 +3790,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3864,34 +3798,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3916,13 +3848,13 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -3951,19 +3883,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3971,7 +3903,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3991,22 +3923,22 @@
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4031,13 +3963,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4054,51 +3986,47 @@
       <c r="AD21" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>56</v>
@@ -4110,20 +4038,22 @@
         <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4148,13 +4078,11 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4177,41 +4105,41 @@
       </c>
       <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>56</v>
@@ -4223,22 +4151,20 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4263,13 +4189,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4286,15 +4212,11 @@
       <c r="AD23" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4302,31 +4224,31 @@
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4345,19 +4267,17 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4417,19 +4337,19 @@
         <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4437,11 +4357,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4457,23 +4377,21 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4497,13 +4415,11 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4532,27 +4448,27 @@
         <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4572,20 +4488,18 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4633,11 +4547,15 @@
       <c r="AD26" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4651,13 +4569,13 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4665,11 +4583,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4685,21 +4603,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4735,22 +4653,26 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE27" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4758,19 +4680,19 @@
         <v>45</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4778,9 +4700,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4798,23 +4722,17 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4861,41 +4779,47 @@
       <c r="AD28" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG28" s="2"/>
+      <c r="AG28" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH28" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4916,20 +4840,14 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="L29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4953,11 +4871,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4974,28 +4894,32 @@
       <c r="AD29" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE29" s="2"/>
+      <c r="AE29" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH29" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5006,18 +4930,20 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C30" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5029,18 +4955,14 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5064,13 +4986,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5087,11 +5009,15 @@
       <c r="AD30" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE30" s="2"/>
+      <c r="AE30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG30" s="2"/>
+      <c r="AG30" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5102,24 +5028,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5130,7 +5056,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5139,20 +5065,22 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5212,16 +5140,16 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5232,7 +5160,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5252,21 +5180,23 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5290,11 +5220,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5326,7 +5258,7 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>296</v>
@@ -5338,12 +5270,12 @@
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5366,16 +5298,20 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5399,13 +5335,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5422,15 +5358,11 @@
       <c r="AD33" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE33" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5444,10 +5376,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5458,18 +5390,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5481,16 +5413,16 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5528,25 +5460,25 @@
         <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5558,28 +5490,26 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5600,13 +5530,17 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="K35" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5654,15 +5588,11 @@
       <c r="AD35" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5673,28 +5603,26 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5715,14 +5643,20 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5770,7 +5704,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5782,7 +5716,7 @@
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5791,10 +5725,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5805,11 +5739,9 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5818,7 +5750,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5830,11 +5762,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5885,13 +5819,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -5909,7 +5843,7 @@
         <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5920,11 +5854,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5940,23 +5874,21 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6003,11 +5935,15 @@
       <c r="AD38" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6021,10 +5957,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6035,43 +5971,41 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6118,11 +6052,15 @@
       <c r="AD39" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6136,10 +6074,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>323</v>
+        <v>99</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6150,7 +6088,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6173,20 +6111,16 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6210,13 +6144,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6239,7 +6173,7 @@
       </c>
       <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>45</v>
@@ -6251,10 +6185,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6265,7 +6199,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6276,7 +6210,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6288,17 +6222,15 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6346,17 +6278,13 @@
       <c r="AD41" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>45</v>
@@ -6365,24 +6293,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6405,18 +6333,20 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6440,13 +6370,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6478,24 +6408,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>349</v>
+        <v>243</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6518,19 +6448,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6555,13 +6485,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6579,7 +6509,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6591,19 +6521,19 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6614,7 +6544,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6637,16 +6567,18 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>69</v>
+        <v>368</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6693,15 +6625,11 @@
       <c r="AD44" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6718,7 +6646,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6729,18 +6657,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6752,17 +6680,15 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6810,15 +6736,11 @@
       <c r="AD45" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6832,10 +6754,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6846,41 +6768,43 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>147</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6928,7 +6852,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6940,7 +6864,7 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6949,10 +6873,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>142</v>
+        <v>384</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6963,7 +6887,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6986,13 +6910,13 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>367</v>
+        <v>246</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>265</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7042,13 +6966,17 @@
       <c r="AD47" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE47" s="2"/>
+      <c r="AE47" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG47" s="2"/>
+      <c r="AG47" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH47" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>45</v>
@@ -7060,10 +6988,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7074,18 +7002,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7097,15 +7025,17 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>367</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7153,13 +7083,17 @@
       <c r="AD48" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE48" s="2"/>
+      <c r="AE48" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG48" s="2"/>
+      <c r="AG48" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH48" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>45</v>
@@ -7171,10 +7105,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>376</v>
+        <v>267</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7185,43 +7119,41 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7245,13 +7177,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7268,11 +7200,15 @@
       <c r="AD49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7283,13 +7219,13 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7300,7 +7236,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7323,26 +7259,26 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>45</v>
@@ -7360,13 +7296,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7383,15 +7319,11 @@
       <c r="AD50" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>386</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7402,13 +7334,13 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>396</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7419,7 +7351,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7427,7 +7359,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>56</v>
@@ -7442,18 +7374,16 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7521,7 +7451,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7532,7 +7462,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7543,7 +7473,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7552,19 +7482,23 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7620,7 +7554,7 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7629,10 +7563,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7643,7 +7577,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7663,23 +7597,19 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>352</v>
+        <v>246</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7727,19 +7657,19 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7748,10 +7678,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>410</v>
+        <v>267</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7762,18 +7692,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7785,15 +7715,17 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7842,13 +7774,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -7866,7 +7798,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7877,11 +7809,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7894,22 +7826,22 @@
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7959,7 +7891,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -7983,7 +7915,7 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -7994,41 +7926,41 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>147</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8052,13 +7984,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8075,15 +8007,11 @@
       <c r="AD56" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE56" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8094,16 +8022,16 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8111,7 +8039,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8131,29 +8059,29 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>217</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>418</v>
+        <v>219</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>45</v>
@@ -8171,13 +8099,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8209,24 +8137,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>422</v>
+        <v>224</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8234,7 +8162,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>56</v>
@@ -8249,16 +8177,20 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>424</v>
+        <v>142</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8282,13 +8214,11 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8311,7 +8241,7 @@
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>45</v>
@@ -8323,10 +8253,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>427</v>
+        <v>233</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8337,18 +8267,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8357,22 +8287,22 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>429</v>
+        <v>236</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>430</v>
+        <v>237</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>432</v>
+        <v>238</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8397,13 +8327,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8429,30 +8359,30 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>433</v>
+        <v>242</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>434</v>
+        <v>243</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8463,7 +8393,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8475,16 +8405,20 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8531,15 +8465,11 @@
       <c r="AD60" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE60" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE60" s="2"/>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8553,10 +8483,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8567,18 +8497,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8590,17 +8520,15 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8649,13 +8577,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8673,7 +8601,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8684,11 +8612,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>363</v>
+        <v>101</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8701,22 +8629,22 @@
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8766,7 +8694,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8790,7 +8718,7 @@
         <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8801,41 +8729,41 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8859,13 +8787,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -8882,11 +8810,15 @@
       <c r="AD63" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE63" s="2"/>
+      <c r="AE63" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG63" s="2"/>
+      <c r="AG63" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8897,16 +8829,16 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>45</v>
@@ -8914,7 +8846,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8934,23 +8866,19 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9003,7 +8931,7 @@
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>45</v>
@@ -9012,24 +8940,24 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9052,20 +8980,16 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9089,11 +9013,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9116,7 +9042,7 @@
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" t="s" s="2">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>45</v>
@@ -9128,10 +9054,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9142,11 +9068,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9165,19 +9091,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
+        <v>354</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9202,13 +9128,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9240,24 +9166,24 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9280,19 +9206,19 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>452</v>
+        <v>361</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9317,13 +9243,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9355,13 +9281,13 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9372,7 +9298,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9395,16 +9321,18 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>69</v>
+        <v>368</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9451,15 +9379,11 @@
       <c r="AD68" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE68" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE68" s="2"/>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9476,7 +9400,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9487,18 +9411,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9510,17 +9434,15 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9568,15 +9490,11 @@
       <c r="AD69" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE69" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE69" s="2"/>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9590,813 +9508,20 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" s="2"/>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" s="2"/>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" s="2"/>
-      <c r="AH72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" s="2"/>
-      <c r="AH73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO76">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10406,7 +9531,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-NonLaboratoryObservation.xlsx
+++ b/docs/odh/shr-core-NonLaboratoryObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="477">
   <si>
     <t>Path</t>
   </si>
@@ -225,13 +225,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Observation.implicitRules</t>
+    <t>Observation.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Observation.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Observation.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -261,9 +410,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -332,24 +478,40 @@
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>observationpartof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ObservationPartOf-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>observationderivedfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ObservationDerivedFrom-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -362,6 +524,16 @@
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>focalsubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-FocalSubject-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
   </si>
   <si>
     <t>Observation.identifier</t>
@@ -396,7 +568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -504,9 +676,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
@@ -534,7 +703,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location]]}
 </t>
   </si>
   <si>
@@ -571,7 +740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -637,35 +806,31 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>Date/Time this was made available</t>
+  </si>
+  <si>
+    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>Updated when the result is updated.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson]]}
 </t>
   </si>
   <si>
-    <t>Date/Time this was made available</t>
-  </si>
-  <si>
-    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>Updated when the result is updated.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
-</t>
-  </si>
-  <si>
     <t>Who is responsible for the observation</t>
   </si>
   <si>
@@ -691,7 +856,7 @@
   </si>
   <si>
     <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}SampledData {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -790,127 +955,115 @@
     <t>Observation.comment</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Comments about result</t>
+  </si>
+  <si>
+    <t>May include statements about significant, unexpected or unreliable values, or information about the source of the value where this may be relevant to the interpretation of the result.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ body-site-instance](extension-body-site-instance.html).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.id</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Comments about result</t>
-  </si>
-  <si>
-    <t>May include statements about significant, unexpected or unreliable values, or information about the source of the value where this may be relevant to the interpretation of the result.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ body-site-instance](extension-body-site-instance.html).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
-  </si>
-  <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
-  </si>
-  <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
-  </si>
-  <si>
-    <t>relationtolandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
+    <t>The relationship between a landmark that helps determine a body location and the body location itself. The location relative to a landmark is specified by:
+* Specifying the location and type of landmark using a body site code and optional laterality/orientation,
+* Specifying the direction from the landmark to the body location, and
+* Specifying the distance from the landmark to the body location.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -1010,7 +1163,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1267,7 +1420,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1529,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP69"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1539,7 +1692,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.80078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1561,8 +1714,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -2070,10 +2223,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>69</v>
@@ -2084,9 +2237,7 @@
       <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2135,7 +2286,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2159,7 +2310,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2174,14 +2325,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2193,16 +2344,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2228,37 +2379,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2276,7 +2427,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2287,11 +2438,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2312,15 +2465,11 @@
       <c r="J7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>45</v>
@@ -2369,16 +2518,16 @@
         <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2393,7 +2542,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2404,18 +2553,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2424,19 +2573,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2485,15 +2634,11 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2510,7 +2655,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2521,18 +2666,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>45</v>
@@ -2541,19 +2686,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2602,15 +2747,11 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2627,7 +2768,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2638,11 +2779,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2655,22 +2796,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2719,15 +2860,11 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2744,7 +2881,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2755,7 +2892,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2778,18 +2915,18 @@
         <v>57</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2813,13 +2950,13 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>45</v>
@@ -2848,19 +2985,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2868,11 +3005,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2891,18 +3028,18 @@
         <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -2926,13 +3063,13 @@
         <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>45</v>
@@ -2961,16 +3098,16 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -2981,7 +3118,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2989,7 +3126,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>56</v>
@@ -3004,20 +3141,18 @@
         <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3041,13 +3176,13 @@
         <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>45</v>
@@ -3064,11 +3199,15 @@
       <c r="AD13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3076,19 +3215,19 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3096,7 +3235,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3119,20 +3258,18 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3156,13 +3293,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3180,13 +3317,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3204,10 +3341,10 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3215,15 +3352,15 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>56</v>
@@ -3235,21 +3372,21 @@
         <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3273,13 +3410,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3296,50 +3433,54 @@
       <c r="AD15" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3348,23 +3489,21 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3412,13 +3551,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3427,19 +3566,19 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3447,18 +3586,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
@@ -3470,20 +3609,18 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3519,22 +3656,24 @@
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE17" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG17" s="2"/>
+      <c r="AG17" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3542,19 +3681,19 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3562,18 +3701,20 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3582,23 +3723,17 @@
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3645,11 +3780,15 @@
       <c r="AD18" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE18" s="2"/>
+      <c r="AE18" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3657,19 +3796,19 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3677,9 +3816,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3688,7 +3829,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3697,20 +3838,16 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3758,11 +3895,15 @@
       <c r="AD19" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3776,13 +3917,13 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3790,9 +3931,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3810,21 +3953,17 @@
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3871,11 +4010,15 @@
       <c r="AD20" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3883,19 +4026,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3903,43 +4046,41 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3975,52 +4116,56 @@
         <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE21" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH21" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4029,32 +4174,26 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4078,11 +4217,13 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4099,28 +4240,32 @@
       <c r="AD22" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE22" s="2"/>
+      <c r="AE22" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG22" s="2"/>
+      <c r="AG22" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH22" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4131,18 +4276,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4151,20 +4296,20 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4189,13 +4334,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4224,38 +4369,38 @@
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4264,20 +4409,20 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4337,16 +4482,16 @@
         <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4357,7 +4502,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4365,7 +4510,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>56</v>
@@ -4374,24 +4519,26 @@
         <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4415,11 +4562,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4448,27 +4597,27 @@
         <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4491,16 +4640,20 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4524,13 +4677,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4548,13 +4701,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4572,10 +4725,10 @@
         <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4583,18 +4736,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4603,21 +4756,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4641,38 +4794,34 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG27" s="2"/>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4680,37 +4829,35 @@
         <v>45</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>56</v>
@@ -4722,17 +4869,23 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4780,13 +4933,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4795,19 +4948,19 @@
         <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4815,13 +4968,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4840,14 +4991,20 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4894,15 +5051,11 @@
       <c r="AD29" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG29" s="2"/>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4910,19 +5063,19 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -4930,20 +5083,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -4952,17 +5103,23 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="K30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5009,15 +5166,11 @@
       <c r="AD30" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE30" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG30" s="2"/>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5025,19 +5178,19 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5045,7 +5198,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5056,7 +5209,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5068,20 +5221,18 @@
         <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5146,13 +5297,13 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5160,7 +5311,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5171,7 +5322,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5183,19 +5334,17 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5255,19 +5404,19 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5275,7 +5424,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5295,22 +5444,22 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5335,13 +5484,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5364,33 +5513,33 @@
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5401,7 +5550,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5413,18 +5562,20 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5448,13 +5599,11 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5471,47 +5620,43 @@
       <c r="AD34" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE34" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>145</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5530,18 +5675,18 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>317</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5565,13 +5710,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5603,24 +5748,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>324</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5643,19 +5788,17 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>326</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5703,32 +5846,28 @@
       <c r="AD36" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5739,7 +5878,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5762,15 +5901,17 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5795,13 +5936,11 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5818,15 +5957,11 @@
       <c r="AD37" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5837,35 +5972,35 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5877,17 +6012,15 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5936,13 +6069,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5960,7 +6093,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5971,11 +6104,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5988,22 +6121,22 @@
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6041,19 +6174,19 @@
         <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6077,7 +6210,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6088,9 +6221,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6111,13 +6246,11 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6167,13 +6300,17 @@
       <c r="AD40" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH40" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>45</v>
@@ -6185,10 +6322,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6199,9 +6336,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6222,13 +6361,11 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6278,13 +6415,17 @@
       <c r="AD41" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH41" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>45</v>
@@ -6296,10 +6437,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6310,9 +6451,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6321,7 +6464,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6333,20 +6476,14 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6370,13 +6507,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6393,11 +6530,15 @@
       <c r="AD42" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6408,13 +6549,13 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6425,7 +6566,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6436,7 +6577,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6445,22 +6586,22 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6485,13 +6626,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6508,15 +6649,11 @@
       <c r="AD43" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6527,13 +6664,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6544,7 +6681,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6564,20 +6701,22 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>368</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6643,10 +6782,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6657,7 +6796,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6680,16 +6819,20 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6713,13 +6856,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6754,10 +6897,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6768,7 +6911,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6788,23 +6931,21 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6851,43 +6992,39 @@
       <c r="AD46" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6910,15 +7047,17 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6966,15 +7105,11 @@
       <c r="AD47" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE47" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="AE47" s="2"/>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
@@ -6985,35 +7120,35 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7025,18 +7160,20 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>102</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7084,7 +7221,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>273</v>
+        <v>366</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7096,7 +7233,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7105,10 +7242,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>267</v>
+        <v>374</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7119,40 +7256,38 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7201,13 +7336,13 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -7225,7 +7360,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7236,18 +7371,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7259,26 +7394,24 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>45</v>
@@ -7296,13 +7429,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7319,11 +7452,15 @@
       <c r="AD50" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7337,10 +7474,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7351,38 +7488,40 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7430,11 +7569,15 @@
       <c r="AD51" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7451,7 +7594,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>401</v>
+        <v>145</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7462,7 +7605,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7473,7 +7616,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7482,23 +7625,19 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7551,10 +7690,10 @@
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7563,10 +7702,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7577,7 +7716,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7600,13 +7739,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>264</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>265</v>
+        <v>390</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7656,17 +7795,13 @@
       <c r="AD53" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE53" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="AE53" s="2"/>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>45</v>
@@ -7678,10 +7813,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>267</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7692,18 +7827,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7715,18 +7850,20 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>269</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7750,13 +7887,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -7773,15 +7910,11 @@
       <c r="AD54" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE54" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="AE54" s="2"/>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG54" s="2"/>
       <c r="AH54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7792,13 +7925,13 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7809,41 +7942,43 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -7867,13 +8002,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -7891,7 +8026,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -7909,13 +8044,13 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -7926,7 +8061,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7934,7 +8069,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>56</v>
@@ -7946,20 +8081,20 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>142</v>
+        <v>409</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>155</v>
+        <v>412</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -7984,13 +8119,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8022,16 +8157,16 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>415</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>162</v>
+        <v>413</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8039,7 +8174,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8059,23 +8194,19 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8137,24 +8268,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>223</v>
+        <v>386</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>224</v>
+        <v>417</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8174,22 +8305,22 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8214,11 +8345,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8235,16 +8368,20 @@
       <c r="AD58" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE58" s="2"/>
+      <c r="AE58" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG58" s="2"/>
+      <c r="AG58" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH58" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8253,10 +8390,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>99</v>
+        <v>424</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>233</v>
+        <v>425</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8267,11 +8404,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8290,20 +8427,16 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8327,13 +8460,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8350,11 +8483,15 @@
       <c r="AD59" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE59" s="2"/>
+      <c r="AE59" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG59" s="2"/>
+      <c r="AG59" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8365,28 +8502,28 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8405,20 +8542,18 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8465,11 +8600,15 @@
       <c r="AD60" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE60" s="2"/>
+      <c r="AE60" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG60" s="2"/>
+      <c r="AG60" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8483,10 +8622,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>333</v>
+        <v>73</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8497,38 +8636,40 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8577,13 +8718,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8601,7 +8742,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8612,18 +8753,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8635,24 +8776,26 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>45</v>
@@ -8670,13 +8813,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8693,15 +8836,11 @@
       <c r="AD62" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8715,10 +8854,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>267</v>
+        <v>437</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8729,40 +8868,38 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>102</v>
+        <v>439</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>108</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -8810,15 +8947,11 @@
       <c r="AD63" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="AE63" s="2"/>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8835,7 +8968,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>99</v>
+        <v>442</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -8846,7 +8979,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8857,7 +8990,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -8866,19 +8999,23 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>342</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -8931,10 +9068,10 @@
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -8943,10 +9080,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -8957,7 +9094,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8980,13 +9117,13 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>341</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>348</v>
+        <v>70</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9036,13 +9173,17 @@
       <c r="AD65" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE65" s="2"/>
+      <c r="AE65" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG65" s="2"/>
+      <c r="AG65" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH65" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>45</v>
@@ -9054,10 +9195,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9068,18 +9209,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9091,20 +9232,18 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9128,13 +9267,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9151,11 +9290,15 @@
       <c r="AD66" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE66" s="2"/>
+      <c r="AE66" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG66" s="2"/>
+      <c r="AG66" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9166,13 +9309,13 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9183,11 +9326,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9200,26 +9343,24 @@
         <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>361</v>
+        <v>159</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9243,13 +9384,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9266,11 +9407,15 @@
       <c r="AD67" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE67" s="2"/>
+      <c r="AE67" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9281,13 +9426,13 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9298,7 +9443,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9306,7 +9451,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>56</v>
@@ -9318,20 +9463,20 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>368</v>
+        <v>196</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>369</v>
+        <v>454</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>370</v>
+        <v>455</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>371</v>
+        <v>209</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9356,13 +9501,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9394,16 +9539,16 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>372</v>
+        <v>215</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>45</v>
@@ -9411,7 +9556,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9431,19 +9576,23 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9505,23 +9654,1391 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X70" s="2"/>
+      <c r="Y70" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" s="2"/>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" s="2"/>
+      <c r="AH70" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" s="2"/>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" s="2"/>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" s="2"/>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" s="2"/>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" s="2"/>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE80" s="2"/>
+      <c r="AF80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG80" s="2"/>
+      <c r="AH80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE81" s="2"/>
+      <c r="AF81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG81" s="2"/>
+      <c r="AH81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO69">
+  <autoFilter ref="A1:AO81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9531,7 +11048,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
